--- a/output/bi.custom.json/result.xlsx
+++ b/output/bi.custom.json/result.xlsx
@@ -439,7 +439,7 @@
     <col customWidth="1" max="4" min="4" width="10"/>
     <col customWidth="1" max="5" min="5" width="10"/>
     <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="7" min="7" width="21"/>
     <col customWidth="1" max="8" min="8" width="20"/>
     <col customWidth="1" max="9" min="9" width="6"/>
     <col customWidth="1" max="10" min="10" width="8"/>
@@ -541,7 +541,7 @@
         <v>800</v>
       </c>
       <c r="G2" t="n">
-        <v>97.32360097323601</v>
+        <v>77.07129094412332</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -597,10 +597,10 @@
         <v>1000000</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.851581508515815</v>
+        <v>21.48362235067437</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7299270072992701</v>
+        <v>0.5780346820809248</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7299270072992701</v>
+        <v>0.5780346820809248</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.121654501216545</v>
+        <v>0.09633911368015415</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121654501216545</v>
+        <v>0.09633911368015415</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121654501216545</v>
+        <v>0.09633911368015415</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
